--- a/Reports/heart/heart_multifairgan_10_1.xlsx
+++ b/Reports/heart/heart_multifairgan_10_1.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0106</v>
+        <v>-0.0827</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0422</v>
+        <v>-0.0827</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9174</v>
+        <v>0.8448</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.1579</v>
+        <v>1.0702</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1489</v>
+        <v>0.1403</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.2446</v>
+        <v>1.2391</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1124</v>
+        <v>0.08019999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.221</v>
+        <v>1.1525</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0978</v>
+        <v>0.0435</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.662</v>
+        <v>0.6522</v>
       </c>
     </row>
     <row r="13">
